--- a/Base de données/ORGA_AU.xlsx
+++ b/Base de données/ORGA_AU.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="124">
   <si>
     <t>idORGA_AU</t>
   </si>
@@ -28,6 +28,366 @@
   </si>
   <si>
     <t>occurrences_ORGA_AU</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF TORONTO</t>
+  </si>
+  <si>
+    <t>SABISTON CM</t>
+  </si>
+  <si>
+    <t>LOUGHBOROUGH UNIVERSITY</t>
+  </si>
+  <si>
+    <t>NTOUMANIS N</t>
+  </si>
+  <si>
+    <t>JOWETT S</t>
+  </si>
+  <si>
+    <t>CHAN DK</t>
+  </si>
+  <si>
+    <t>FLETCHER D</t>
+  </si>
+  <si>
+    <t>NORTHUMBRIA UNIVERSITY</t>
+  </si>
+  <si>
+    <t>DAVIS L</t>
+  </si>
+  <si>
+    <t>MONASH UNIVERSITY</t>
+  </si>
+  <si>
+    <t>FINCH C</t>
+  </si>
+  <si>
+    <t>DONALDSON A</t>
+  </si>
+  <si>
+    <t>WHITE P</t>
+  </si>
+  <si>
+    <t>SULLIVAN SJ</t>
+  </si>
+  <si>
+    <t>POULOS RG</t>
+  </si>
+  <si>
+    <t>NEWTON JD</t>
+  </si>
+  <si>
+    <t>EWING MT</t>
+  </si>
+  <si>
+    <t>MAKDISSI M</t>
+  </si>
+  <si>
+    <t>DAVIS G</t>
+  </si>
+  <si>
+    <t>VICTORIA UNIVERSITY</t>
+  </si>
+  <si>
+    <t>EIME R</t>
+  </si>
+  <si>
+    <t>PAYNE W</t>
+  </si>
+  <si>
+    <t>HARVEY JT</t>
+  </si>
+  <si>
+    <t>AUGHEY R</t>
+  </si>
+  <si>
+    <t>BILLAUT F</t>
+  </si>
+  <si>
+    <t>CASEY M</t>
+  </si>
+  <si>
+    <t>TELFORD A</t>
+  </si>
+  <si>
+    <t>MOONEY A</t>
+  </si>
+  <si>
+    <t>YOUNG JA</t>
+  </si>
+  <si>
+    <t>CHARITY MJ</t>
+  </si>
+  <si>
+    <t>GORE CJ</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF WESTERN SYDNEY</t>
+  </si>
+  <si>
+    <t>LONSDALE C</t>
+  </si>
+  <si>
+    <t>GUAGLIANO JM</t>
+  </si>
+  <si>
+    <t>ROSENKRANZ RR</t>
+  </si>
+  <si>
+    <t>KOLT GS</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF PITTSBURGH</t>
+  </si>
+  <si>
+    <t>MCCAULEY HL</t>
+  </si>
+  <si>
+    <t>TANCREDI DJ</t>
+  </si>
+  <si>
+    <t>SILVERMAN JG</t>
+  </si>
+  <si>
+    <t>DECKER MR</t>
+  </si>
+  <si>
+    <t>AUSTIN SB</t>
+  </si>
+  <si>
+    <t>MILLER E</t>
+  </si>
+  <si>
+    <t>ELBIN RJ</t>
+  </si>
+  <si>
+    <t>COVASSIN T</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF BALLARAT</t>
+  </si>
+  <si>
+    <t>ULLAH S</t>
+  </si>
+  <si>
+    <t>THE UNIVERSITY OF WESTERN AUSTRALIA</t>
+  </si>
+  <si>
+    <t>GUCCIARDI DF</t>
+  </si>
+  <si>
+    <t>JACKSON B</t>
+  </si>
+  <si>
+    <t>DIMMOCK JA</t>
+  </si>
+  <si>
+    <t>PERELMAN SCHOOL OF MEDICINE AT THE UNIVERSITY OF PENNSYLVANIA</t>
+  </si>
+  <si>
+    <t>RUSSELL A</t>
+  </si>
+  <si>
+    <t>TUFTS UNIVERSITY SCHOOL OF MEDICINE</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF BOLOGNA</t>
+  </si>
+  <si>
+    <t>ROI GS</t>
+  </si>
+  <si>
+    <t>CICOGNANI E</t>
+  </si>
+  <si>
+    <t>MAZZONI D</t>
+  </si>
+  <si>
+    <t>TOTTI V</t>
+  </si>
+  <si>
+    <t>MOSCONI G</t>
+  </si>
+  <si>
+    <t>NANNI COSTA A</t>
+  </si>
+  <si>
+    <t>HARVARD UNIVERSITY</t>
+  </si>
+  <si>
+    <t>KROSHUS E</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF OTTAWA</t>
+  </si>
+  <si>
+    <t>HANCOCK D</t>
+  </si>
+  <si>
+    <t>AUSTRALIAN CATHOLIC UNIVERSITY</t>
+  </si>
+  <si>
+    <t>GABBETT T</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF QUEENSLAND</t>
+  </si>
+  <si>
+    <t>MALLETT CJ</t>
+  </si>
+  <si>
+    <t>A UNIVERSITY SCHOOL OF PHYSICAL EDUCATION</t>
+  </si>
+  <si>
+    <t>SIEKANSKA M</t>
+  </si>
+  <si>
+    <t>BLECHARZ J</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF SPLIT</t>
+  </si>
+  <si>
+    <t>SEKULIC D</t>
+  </si>
+  <si>
+    <t>ZENIC N</t>
+  </si>
+  <si>
+    <t>ULJEVIC O</t>
+  </si>
+  <si>
+    <t>KONDRIC M</t>
+  </si>
+  <si>
+    <t>RODEK J</t>
+  </si>
+  <si>
+    <t>MCMASTER UNIVERSITY</t>
+  </si>
+  <si>
+    <t>MARTIN GINIS KA</t>
+  </si>
+  <si>
+    <t>QUEEN'S UNIVERSITY</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF LIMERICK</t>
+  </si>
+  <si>
+    <t>MACINTYRE T</t>
+  </si>
+  <si>
+    <t>MORAN A</t>
+  </si>
+  <si>
+    <t>UNIVERSITY COLLEGE DUBLIN</t>
+  </si>
+  <si>
+    <t>LEEDS METROPOLITAN UNIVERSITY</t>
+  </si>
+  <si>
+    <t>CARLESS D</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF OTAGO</t>
+  </si>
+  <si>
+    <t>LEE H</t>
+  </si>
+  <si>
+    <t>THE GEORGE WASHINGTON UNIVERSITY</t>
+  </si>
+  <si>
+    <t>VISEK AJ</t>
+  </si>
+  <si>
+    <t>BLOM LC</t>
+  </si>
+  <si>
+    <t>HARRIS BS</t>
+  </si>
+  <si>
+    <t>HARRIS B</t>
+  </si>
+  <si>
+    <t>FEDERATION UNIVERSITY AUSTRALIA</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF NEWCASTLE</t>
+  </si>
+  <si>
+    <t>QUEENSLAND UNIVERSITY OF TECHNOLOGY</t>
+  </si>
+  <si>
+    <t>DAVIDS K</t>
+  </si>
+  <si>
+    <t>RENSHAW I</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF JYVASKYLA</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF PORTO</t>
+  </si>
+  <si>
+    <t>MESQUITA I</t>
+  </si>
+  <si>
+    <t>AUBURN UNIVERSITY</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF CENTRAL LANCASHIRE</t>
+  </si>
+  <si>
+    <t>COLLINS D</t>
+  </si>
+  <si>
+    <t>MARTINDALE A</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF NORTH CAROLINA AT CHAPEL HILL</t>
+  </si>
+  <si>
+    <t>GUSKIEWICZ K</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF ALBERTA</t>
+  </si>
+  <si>
+    <t>RESEARCH HOSPITAL CENTER OF THE UNIVERSITE DE MONTREAL (CRCHUM)</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF WASHINGTON</t>
+  </si>
+  <si>
+    <t>HERRING SA</t>
+  </si>
+  <si>
+    <t>RIVARA FP</t>
+  </si>
+  <si>
+    <t>SCHIFF MA</t>
+  </si>
+  <si>
+    <t>CHRISMAN SP</t>
+  </si>
+  <si>
+    <t>CHUNG SK</t>
+  </si>
+  <si>
+    <t>BALL STATE UNIVERSITY</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF LJUBLJANA</t>
+  </si>
+  <si>
+    <t>EDINBURGH NAPIER UNIVERSITY</t>
+  </si>
+  <si>
+    <t>MARTINDALE R</t>
   </si>
 </sst>
 </file>
@@ -366,10 +726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2:A143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -390,6 +750,1994 @@
       </c>
       <c r="D1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" t="s">
+        <v>31</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" t="s">
+        <v>50</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>51</v>
+      </c>
+      <c r="C55" t="s">
+        <v>52</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>51</v>
+      </c>
+      <c r="C56" t="s">
+        <v>36</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>51</v>
+      </c>
+      <c r="C57" t="s">
+        <v>53</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>51</v>
+      </c>
+      <c r="C58" t="s">
+        <v>54</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59" t="s">
+        <v>56</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>57</v>
+      </c>
+      <c r="C60" t="s">
+        <v>56</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>58</v>
+      </c>
+      <c r="C61" t="s">
+        <v>59</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>58</v>
+      </c>
+      <c r="C62" t="s">
+        <v>60</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>58</v>
+      </c>
+      <c r="C63" t="s">
+        <v>61</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>58</v>
+      </c>
+      <c r="C64" t="s">
+        <v>62</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>58</v>
+      </c>
+      <c r="C65" t="s">
+        <v>63</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>58</v>
+      </c>
+      <c r="C66" t="s">
+        <v>64</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>65</v>
+      </c>
+      <c r="C67" t="s">
+        <v>66</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>67</v>
+      </c>
+      <c r="C68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>67</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>69</v>
+      </c>
+      <c r="C70" t="s">
+        <v>70</v>
+      </c>
+      <c r="D70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>69</v>
+      </c>
+      <c r="C71" t="s">
+        <v>36</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>69</v>
+      </c>
+      <c r="C72" t="s">
+        <v>37</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>69</v>
+      </c>
+      <c r="C73" t="s">
+        <v>38</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>69</v>
+      </c>
+      <c r="C74" t="s">
+        <v>39</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>69</v>
+      </c>
+      <c r="C75" t="s">
+        <v>50</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>71</v>
+      </c>
+      <c r="C76" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>71</v>
+      </c>
+      <c r="C77" t="s">
+        <v>52</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>71</v>
+      </c>
+      <c r="C78" t="s">
+        <v>70</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>71</v>
+      </c>
+      <c r="C79" t="s">
+        <v>72</v>
+      </c>
+      <c r="D79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>73</v>
+      </c>
+      <c r="C80" t="s">
+        <v>74</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>73</v>
+      </c>
+      <c r="C81" t="s">
+        <v>75</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>76</v>
+      </c>
+      <c r="C82" t="s">
+        <v>77</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>76</v>
+      </c>
+      <c r="C83" t="s">
+        <v>78</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>76</v>
+      </c>
+      <c r="C84" t="s">
+        <v>79</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>76</v>
+      </c>
+      <c r="C85" t="s">
+        <v>80</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>76</v>
+      </c>
+      <c r="C86" t="s">
+        <v>81</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>82</v>
+      </c>
+      <c r="C87" t="s">
+        <v>83</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>84</v>
+      </c>
+      <c r="C88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>85</v>
+      </c>
+      <c r="C89" t="s">
+        <v>86</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>85</v>
+      </c>
+      <c r="C90" t="s">
+        <v>87</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>88</v>
+      </c>
+      <c r="C91" t="s">
+        <v>86</v>
+      </c>
+      <c r="D91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>88</v>
+      </c>
+      <c r="C92" t="s">
+        <v>87</v>
+      </c>
+      <c r="D92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>89</v>
+      </c>
+      <c r="C93" t="s">
+        <v>90</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>91</v>
+      </c>
+      <c r="C94" t="s">
+        <v>14</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>91</v>
+      </c>
+      <c r="C95" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>91</v>
+      </c>
+      <c r="C96" t="s">
+        <v>16</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>91</v>
+      </c>
+      <c r="C97" t="s">
+        <v>17</v>
+      </c>
+      <c r="D97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>91</v>
+      </c>
+      <c r="C98" t="s">
+        <v>92</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>91</v>
+      </c>
+      <c r="C99" t="s">
+        <v>19</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>91</v>
+      </c>
+      <c r="C100" t="s">
+        <v>20</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>91</v>
+      </c>
+      <c r="C101" t="s">
+        <v>21</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>91</v>
+      </c>
+      <c r="C102" t="s">
+        <v>22</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>93</v>
+      </c>
+      <c r="C103" t="s">
+        <v>94</v>
+      </c>
+      <c r="D103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>93</v>
+      </c>
+      <c r="C104" t="s">
+        <v>95</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>93</v>
+      </c>
+      <c r="C105" t="s">
+        <v>96</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>93</v>
+      </c>
+      <c r="C106" t="s">
+        <v>97</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>98</v>
+      </c>
+      <c r="C107" t="s">
+        <v>14</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>98</v>
+      </c>
+      <c r="C108" t="s">
+        <v>15</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>98</v>
+      </c>
+      <c r="C109" t="s">
+        <v>18</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>99</v>
+      </c>
+      <c r="C110" t="s">
+        <v>15</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>99</v>
+      </c>
+      <c r="C111" t="s">
+        <v>70</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>99</v>
+      </c>
+      <c r="C112" t="s">
+        <v>18</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>100</v>
+      </c>
+      <c r="C113" t="s">
+        <v>101</v>
+      </c>
+      <c r="D113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>100</v>
+      </c>
+      <c r="C114" t="s">
+        <v>102</v>
+      </c>
+      <c r="D114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>103</v>
+      </c>
+      <c r="C115" t="s">
+        <v>7</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>103</v>
+      </c>
+      <c r="C116" t="s">
+        <v>101</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>103</v>
+      </c>
+      <c r="C117" t="s">
+        <v>102</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>104</v>
+      </c>
+      <c r="C118" t="s">
+        <v>105</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>106</v>
+      </c>
+      <c r="C119" t="s">
+        <v>105</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>106</v>
+      </c>
+      <c r="C120" t="s">
+        <v>77</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>106</v>
+      </c>
+      <c r="C121" t="s">
+        <v>79</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>107</v>
+      </c>
+      <c r="C122" t="s">
+        <v>108</v>
+      </c>
+      <c r="D122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>107</v>
+      </c>
+      <c r="C123" t="s">
+        <v>109</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>110</v>
+      </c>
+      <c r="C124" t="s">
+        <v>111</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>112</v>
+      </c>
+      <c r="C125" t="s">
+        <v>92</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>113</v>
+      </c>
+      <c r="C126" t="s">
+        <v>5</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>114</v>
+      </c>
+      <c r="C127" t="s">
+        <v>111</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>114</v>
+      </c>
+      <c r="C128" t="s">
+        <v>115</v>
+      </c>
+      <c r="D128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>114</v>
+      </c>
+      <c r="C129" t="s">
+        <v>116</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>114</v>
+      </c>
+      <c r="C130" t="s">
+        <v>117</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>114</v>
+      </c>
+      <c r="C131" t="s">
+        <v>118</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>114</v>
+      </c>
+      <c r="C132" t="s">
+        <v>119</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>120</v>
+      </c>
+      <c r="C133" t="s">
+        <v>94</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>120</v>
+      </c>
+      <c r="C134" t="s">
+        <v>95</v>
+      </c>
+      <c r="D134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>120</v>
+      </c>
+      <c r="C135" t="s">
+        <v>96</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>120</v>
+      </c>
+      <c r="C136" t="s">
+        <v>97</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>121</v>
+      </c>
+      <c r="C137" t="s">
+        <v>77</v>
+      </c>
+      <c r="D137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>121</v>
+      </c>
+      <c r="C138" t="s">
+        <v>79</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>121</v>
+      </c>
+      <c r="C139" t="s">
+        <v>80</v>
+      </c>
+      <c r="D139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>121</v>
+      </c>
+      <c r="C140" t="s">
+        <v>81</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>122</v>
+      </c>
+      <c r="C141" t="s">
+        <v>108</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>122</v>
+      </c>
+      <c r="C142" t="s">
+        <v>109</v>
+      </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>122</v>
+      </c>
+      <c r="C143" t="s">
+        <v>123</v>
+      </c>
+      <c r="D143">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
